--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/CustomerAmlRating.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/CustomerAmlRating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251E213-822C-44D2-A67E-3CF8E56DB489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D70B64-A75F-4233-926C-2A6E07D5BCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0-非、1-是</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>H/M/L</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -188,6 +184,11 @@
   </si>
   <si>
     <t>客戶AML評級資料檔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非
+1:是</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +822,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -841,10 +842,10 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -980,10 +981,10 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -1001,10 +1002,10 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>4</v>
       </c>
@@ -1022,10 +1023,10 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>5</v>
       </c>
@@ -1043,7 +1044,7 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
